--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>##</t>
   </si>
@@ -33,6 +33,9 @@
     <t>AssetName</t>
   </si>
   <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -45,13 +48,19 @@
     <t>名字</t>
   </si>
   <si>
+    <t>资源名</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>实体编号</t>
   </si>
   <si>
     <t>实体名</t>
   </si>
   <si>
-    <t>资源名</t>
+    <t>资源加载优先级</t>
   </si>
   <si>
     <t>网格地图</t>
@@ -128,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -155,8 +164,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +195,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -178,6 +257,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -185,112 +300,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -313,181 +322,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,142 +612,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +780,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,17 +1104,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="13.0892857142857" customWidth="1"/>
     <col min="4" max="4" width="13.8303571428571" customWidth="1"/>
+    <col min="5" max="5" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1115,7 +1128,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -1126,64 +1139,91 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>10000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>20000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1231,35 +1271,35 @@
     <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1268,10 +1308,10 @@
         <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1285,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1295,7 +1335,7 @@
     <col min="3" max="3" width="15.0178571428571" customWidth="1"/>
     <col min="4" max="4" width="26.3392857142857" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="12.1964285714286" customWidth="1"/>
+    <col min="6" max="6" width="15.7678571428571" customWidth="1"/>
     <col min="10" max="10" width="22.9107142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1323,38 +1363,38 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
@@ -1364,13 +1404,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -1379,15 +1419,14 @@
         <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>31</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6"/>
@@ -1397,15 +1436,14 @@
         <v>200</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>33</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1416,15 +1454,14 @@
         <v>201</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>35</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1435,15 +1472,14 @@
         <v>300</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>37</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
     <sheet name="特效资源表" sheetId="3" r:id="rId2"/>
     <sheet name="界面资源表" sheetId="1" r:id="rId3"/>
+    <sheet name="场景资源表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>##</t>
   </si>
@@ -130,6 +131,36 @@
   </si>
   <si>
     <t>ActionForm</t>
+  </si>
+  <si>
+    <t>ProcedureType</t>
+  </si>
+  <si>
+    <t>场景编号</t>
+  </si>
+  <si>
+    <t>场景名</t>
+  </si>
+  <si>
+    <t>对应的处理流程</t>
+  </si>
+  <si>
+    <t>初始场景</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>ProcedureMenu</t>
+  </si>
+  <si>
+    <t>战斗编辑器场景</t>
+  </si>
+  <si>
+    <t>BattleEditor</t>
+  </si>
+  <si>
+    <t>ProcedureBattleEditor</t>
   </si>
 </sst>
 </file>
@@ -138,9 +169,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,7 +189,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,68 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,57 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -300,6 +317,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -322,31 +353,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,133 +509,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,8 +544,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,30 +621,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -569,41 +630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,148 +643,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,6 +792,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -768,9 +808,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -778,12 +815,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,7 +1137,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1119,82 +1150,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>10000</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E6">
@@ -1202,28 +1233,28 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
         <v>20000</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="5:5">
-      <c r="E9" s="3"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="3"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1237,7 +1268,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1247,70 +1278,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>100</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1326,7 +1357,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1348,165 +1379,282 @@
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6">
+        <v>100</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="1">
+        <v>201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="1">
+        <v>300</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="20.3839285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="3">
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="3">
-        <v>100</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="4">
-        <v>200</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="4">
-        <v>201</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="4">
-        <v>300</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>##</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>ActionForm</t>
+  </si>
+  <si>
+    <t>战斗编辑器界面</t>
+  </si>
+  <si>
+    <t>BattleEditorForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -168,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,6 +201,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -210,13 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -225,50 +316,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,58 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -347,25 +353,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,67 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,85 +497,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,22 +560,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +619,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -629,159 +644,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -792,13 +798,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1137,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1150,82 +1156,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>10000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6">
@@ -1233,14 +1239,14 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
         <v>20000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6">
@@ -1268,7 +1274,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="A2" sqref="$A2:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1278,70 +1284,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1357,7 +1363,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="$A2:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1378,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" s="1" customFormat="1" spans="2:5">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" s="1" customFormat="1" spans="2:5">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" s="1" customFormat="1" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1463,16 +1469,16 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>200</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="6"/>
@@ -1481,16 +1487,16 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>201</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="6"/>
@@ -1499,16 +1505,16 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>300</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="6"/>
@@ -1517,10 +1523,18 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="6">
+        <v>500</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1528,16 +1542,16 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1550,8 +1564,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1562,84 +1576,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1647,13 +1660,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -202,7 +202,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,13 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -232,111 +331,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,19 +353,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +431,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +491,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,133 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,20 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -619,21 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -644,150 +635,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD5"/>
+      <selection activeCell="E8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -151,10 +151,10 @@
     <t>对应的处理流程</t>
   </si>
   <si>
-    <t>初始场景</t>
-  </si>
-  <si>
-    <t>Main</t>
+    <t>主菜单场景</t>
+  </si>
+  <si>
+    <t>Menu</t>
   </si>
   <si>
     <t>ProcedureMenu</t>
@@ -174,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -195,9 +195,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,7 +217,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +246,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -232,6 +263,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -247,8 +286,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,22 +317,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,52 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +544,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,6 +576,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,8 +621,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,173 +644,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,7 +1143,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
@@ -1564,8 +1564,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>##</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>ProcedureBattleEditor</t>
+  </si>
+  <si>
+    <t>战斗场景</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>ProcedureBattle</t>
   </si>
 </sst>
 </file>
@@ -174,8 +183,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -195,7 +204,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,32 +331,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,98 +346,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,32 +559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +589,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -615,17 +611,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,153 +629,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1562,13 +1571,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -1669,6 +1678,20 @@
         <v>49</v>
       </c>
     </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>##</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>MenuForm</t>
+  </si>
+  <si>
+    <t>存档界面</t>
+  </si>
+  <si>
+    <t>SaveForm</t>
   </si>
   <si>
     <t>战斗界面</t>
@@ -203,27 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -232,6 +217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -243,6 +236,68 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,6 +309,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -262,90 +339,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -362,25 +368,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,157 +518,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,42 +565,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -615,6 +586,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -630,11 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,153 +650,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,8 +1377,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1477,27 +1483,25 @@
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="2">
-        <v>200</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -1515,7 +1519,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="2">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
@@ -1532,27 +1536,41 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="6">
-        <v>500</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="2">
+        <v>300</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="2:10">
+      <c r="B12" s="6">
+        <v>500</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="2"/>
@@ -1573,7 +1591,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1606,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -1637,16 +1655,16 @@
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1655,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1669,13 +1687,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1683,13 +1701,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>##</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>ProcedureMenu</t>
+  </si>
+  <si>
+    <t>游戏主场景</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>ProcedureMain</t>
   </si>
   <si>
     <t>战斗编辑器场景</t>
@@ -189,9 +198,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -210,10 +219,32 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,26 +257,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -262,6 +311,28 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -269,63 +340,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,13 +356,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -374,181 +383,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +568,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,6 +604,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -597,26 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,21 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -664,145 +673,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1377,7 +1386,7 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1589,13 +1598,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -1682,14 +1691,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E7" t="s">
@@ -1708,6 +1718,20 @@
       </c>
       <c r="E8" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>##</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>BattleEditorForm</t>
+  </si>
+  <si>
+    <t>剧情界面</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>StoryForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -198,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -215,6 +224,13 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,6 +242,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -234,20 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -256,8 +265,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +303,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -281,30 +328,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,44 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +577,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,21 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -615,17 +618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,11 +652,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,148 +682,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,8 +1395,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1581,7 +1590,19 @@
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>1001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
@@ -1600,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1633,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -1664,16 +1685,16 @@
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1682,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1697,13 +1718,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1711,13 +1732,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1725,13 +1746,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>##</t>
   </si>
@@ -118,9 +118,18 @@
     <t>存档界面</t>
   </si>
   <si>
+    <t>Popup</t>
+  </si>
+  <si>
     <t>SaveForm</t>
   </si>
   <si>
+    <t>奖励界面</t>
+  </si>
+  <si>
+    <t>RewardForm</t>
+  </si>
+  <si>
     <t>战斗界面</t>
   </si>
   <si>
@@ -146,9 +155,6 @@
   </si>
   <si>
     <t>剧情界面</t>
-  </si>
-  <si>
-    <t>Popup</t>
   </si>
   <si>
     <t>StoryForm</t>
@@ -207,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -229,6 +235,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -257,6 +263,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -273,43 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -318,17 +363,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,36 +376,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -386,19 +392,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,163 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,21 +614,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -637,17 +628,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,13 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,127 +688,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,16 +817,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1393,10 +1399,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1509,44 +1515,42 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="2">
-        <v>200</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1555,16 +1559,16 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="2">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1572,43 +1576,61 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6">
-        <v>500</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="2">
+        <v>300</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13">
+    <row r="13" spans="2:10">
+      <c r="B13" s="6">
+        <v>500</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
         <v>1001</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="6:7">
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1654,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -1685,16 +1707,16 @@
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1703,13 +1725,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1718,13 +1740,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1732,13 +1754,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1746,13 +1768,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>##</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>StoryForm</t>
+  </si>
+  <si>
+    <t>游戏提示界面</t>
+  </si>
+  <si>
+    <t>TipsForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -213,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,6 +243,29 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,8 +284,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -264,7 +316,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,18 +344,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,82 +382,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -392,13 +398,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,169 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,15 +597,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,13 +625,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,17 +679,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,145 +694,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1402,7 +1408,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1628,7 +1634,19 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>1002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
@@ -1676,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -1707,16 +1725,16 @@
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1725,13 +1743,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1740,13 +1758,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1754,13 +1772,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1768,13 +1786,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>##</t>
   </si>
@@ -130,6 +130,12 @@
     <t>RewardForm</t>
   </si>
   <si>
+    <t>主节目</t>
+  </si>
+  <si>
+    <t>MainForm</t>
+  </si>
+  <si>
     <t>战斗界面</t>
   </si>
   <si>
@@ -193,7 +199,7 @@
     <t>Main</t>
   </si>
   <si>
-    <t>ProcedureMain</t>
+    <t>ProcedureLoadSaveData</t>
   </si>
   <si>
     <t>战斗编辑器场景</t>
@@ -219,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -247,7 +253,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,33 +315,69 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,89 +388,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -398,133 +404,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,43 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +611,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -639,200 +695,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1405,10 +1411,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1545,27 +1551,25 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="2">
-        <v>200</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
@@ -1583,7 +1587,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="2">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
@@ -1600,43 +1604,45 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6">
-        <v>500</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="2">
+        <v>300</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14">
-        <v>1001</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="14" spans="2:10">
+      <c r="B14" s="6">
+        <v>500</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
@@ -1649,6 +1655,22 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>1002</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1662,14 +1684,14 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="20.3839285714286" customWidth="1"/>
+    <col min="5" max="5" width="23.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1694,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -1725,16 +1747,16 @@
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1743,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1758,13 +1780,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1772,13 +1794,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1786,13 +1808,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>##</t>
   </si>
@@ -154,12 +154,6 @@
     <t>ActionForm</t>
   </si>
   <si>
-    <t>战斗编辑器界面</t>
-  </si>
-  <si>
-    <t>BattleEditorForm</t>
-  </si>
-  <si>
     <t>剧情界面</t>
   </si>
   <si>
@@ -200,15 +194,6 @@
   </si>
   <si>
     <t>ProcedureLoadSaveData</t>
-  </si>
-  <si>
-    <t>战斗编辑器场景</t>
-  </si>
-  <si>
-    <t>BattleEditor</t>
-  </si>
-  <si>
-    <t>ProcedureBattleEditor</t>
   </si>
   <si>
     <t>战斗场景</t>
@@ -225,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -253,14 +238,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +275,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -282,112 +367,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -404,181 +389,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,6 +588,51 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,21 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -665,180 +680,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1411,10 +1396,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1621,28 +1606,25 @@
       <c r="I13" s="6"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="6">
-        <v>500</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>1001</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
@@ -1655,22 +1637,6 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16">
-        <v>1002</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1681,13 +1647,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
@@ -1716,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -1747,16 +1713,16 @@
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1765,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1780,13 +1746,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1794,27 +1760,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
     <sheet name="特效资源表" sheetId="3" r:id="rId2"/>
-    <sheet name="界面资源表" sheetId="1" r:id="rId3"/>
-    <sheet name="场景资源表" sheetId="4" r:id="rId4"/>
+    <sheet name="网格地图特效资源表" sheetId="5" r:id="rId3"/>
+    <sheet name="界面资源表" sheetId="1" r:id="rId4"/>
+    <sheet name="场景资源表" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>##</t>
   </si>
@@ -86,6 +87,18 @@
   </si>
   <si>
     <t>SelectEffect</t>
+  </si>
+  <si>
+    <t>条纹滚动特效</t>
+  </si>
+  <si>
+    <t>streak</t>
+  </si>
+  <si>
+    <t>出生点特效</t>
+  </si>
+  <si>
+    <t>brith</t>
   </si>
   <si>
     <t>UIGroup</t>
@@ -210,9 +223,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -238,16 +251,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +304,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -267,19 +326,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,47 +364,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,30 +380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -389,31 +402,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,145 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +601,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,39 +653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -680,150 +678,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1310,7 +1323,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD5"/>
+      <selection activeCell="A6" sqref="$A1:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1394,6 +1407,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="13.3928571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J15"/>
@@ -1428,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1456,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -1464,10 +1576,10 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:5">
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
@@ -1477,13 +1589,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -1492,13 +1604,13 @@
         <v>100</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1509,13 +1621,13 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1525,13 +1637,13 @@
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1541,13 +1653,13 @@
         <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1557,13 +1669,13 @@
         <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1575,13 +1687,13 @@
         <v>201</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1593,13 +1705,13 @@
         <v>300</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1611,13 +1723,13 @@
         <v>1001</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1627,13 +1739,13 @@
         <v>1002</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1644,12 +1756,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1682,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -1713,16 +1825,16 @@
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1731,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1746,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1760,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>##</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>AssetName</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>实体名</t>
+  </si>
+  <si>
+    <t>实体组</t>
   </si>
   <si>
     <t>资源加载优先级</t>
@@ -223,9 +229,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -244,14 +250,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +279,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -281,38 +378,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,67 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -408,181 +414,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,15 +599,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,16 +621,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,16 +650,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -679,17 +676,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,148 +704,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,21 +1196,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="13.0892857142857" customWidth="1"/>
-    <col min="4" max="4" width="13.8303571428571" customWidth="1"/>
-    <col min="5" max="5" width="15.4732142857143" customWidth="1"/>
+    <col min="4" max="5" width="13.8303571428571" customWidth="1"/>
+    <col min="6" max="6" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +1219,9 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1225,91 +1232,103 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>10000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>20000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="6"/>
+    <row r="9" spans="6:6">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1351,41 +1370,41 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1394,10 +1413,10 @@
         <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1430,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1439,41 +1458,41 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1482,10 +1501,10 @@
         <v>2001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1493,10 +1512,10 @@
         <v>2002</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1540,46 +1559,46 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:5">
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:5">
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
@@ -1589,13 +1608,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -1604,13 +1623,13 @@
         <v>100</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1621,13 +1640,13 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1637,13 +1656,13 @@
         <v>102</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1653,13 +1672,13 @@
         <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1669,13 +1688,13 @@
         <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1687,13 +1706,13 @@
         <v>201</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1705,13 +1724,13 @@
         <v>300</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1723,13 +1742,13 @@
         <v>1001</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1739,13 +1758,13 @@
         <v>1002</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1791,50 +1810,50 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1843,13 +1862,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1858,13 +1877,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1872,13 +1891,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>title_rows=4</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -41,33 +38,27 @@
     <t>Priority</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>名字</t>
+    <t>实体编号</t>
+  </si>
+  <si>
+    <t>实体名</t>
+  </si>
+  <si>
+    <t>实体组</t>
   </si>
   <si>
     <t>资源名</t>
   </si>
   <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>实体编号</t>
-  </si>
-  <si>
-    <t>实体名</t>
-  </si>
-  <si>
-    <t>实体组</t>
-  </si>
-  <si>
     <t>资源加载优先级</t>
   </si>
   <si>
@@ -110,13 +101,13 @@
     <t>UIGroup</t>
   </si>
   <si>
+    <t>界面编号</t>
+  </si>
+  <si>
+    <t>界面名</t>
+  </si>
+  <si>
     <t>界面组</t>
-  </si>
-  <si>
-    <t>界面编号</t>
-  </si>
-  <si>
-    <t>界面名</t>
   </si>
   <si>
     <t>弹出框</t>
@@ -229,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -250,7 +241,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,38 +323,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,84 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,31 +405,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,145 +567,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,8 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,17 +611,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,36 +651,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,153 +679,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,10 +847,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1196,13 +1187,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="13.0892857142857" customWidth="1"/>
@@ -1210,125 +1201,106 @@
     <col min="6" max="6" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3">
+        <v>10000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+      <c r="B5" s="3">
+        <v>20000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>20000</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="6"/>
+    <row r="7" spans="6:6">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1339,84 +1311,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A1:$XFD6"/>
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.3035714285714" customWidth="1"/>
     <col min="3" max="4" width="11.4553571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
+      <c r="B4" s="3">
+        <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1428,94 +1386,80 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="13.3928571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
+      <c r="B4" s="3">
+        <v>2001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="3">
+        <v>2002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="2">
-        <v>2002</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1527,10 +1471,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1543,231 +1487,222 @@
     <col min="10" max="10" width="22.9107142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="2:5">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:5">
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:5">
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:5">
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="6">
-        <v>100</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="3">
+        <v>200</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="3">
+        <v>201</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="2">
-        <v>200</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="3">
+        <v>300</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="2">
-        <v>201</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>1001</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="2">
-        <v>300</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>1002</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14">
-        <v>1001</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15">
-        <v>1002</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1778,126 +1713,112 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="23.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>##</t>
   </si>
@@ -41,12 +41,15 @@
     <t>##type</t>
   </si>
   <si>
+    <t>EntityType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>实体编号</t>
   </si>
   <si>
@@ -62,16 +65,19 @@
     <t>资源加载优先级</t>
   </si>
   <si>
+    <t>GridMap</t>
+  </si>
+  <si>
     <t>网格地图</t>
   </si>
   <si>
-    <t>GridMap</t>
+    <t>BattleUnit</t>
   </si>
   <si>
     <t>战斗单位</t>
   </si>
   <si>
-    <t>BattleUnit</t>
+    <t>EffectType</t>
   </si>
   <si>
     <t>特效编号</t>
@@ -80,10 +86,16 @@
     <t>特效名</t>
   </si>
   <si>
+    <t>SelectEffect</t>
+  </si>
+  <si>
     <t>选择特效</t>
   </si>
   <si>
-    <t>SelectEffect</t>
+    <t>GridEffectType</t>
+  </si>
+  <si>
+    <t>Streak</t>
   </si>
   <si>
     <t>条纹滚动特效</t>
@@ -92,6 +104,9 @@
     <t>streak</t>
   </si>
   <si>
+    <t>Brith</t>
+  </si>
+  <si>
     <t>出生点特效</t>
   </si>
   <si>
@@ -101,6 +116,9 @@
     <t>UIGroup</t>
   </si>
   <si>
+    <t>FormType</t>
+  </si>
+  <si>
     <t>界面编号</t>
   </si>
   <si>
@@ -110,19 +128,22 @@
     <t>界面组</t>
   </si>
   <si>
+    <t>DialogForm</t>
+  </si>
+  <si>
     <t>弹出框</t>
   </si>
   <si>
     <t>Default</t>
   </si>
   <si>
-    <t>DialogForm</t>
+    <t>MenuForm</t>
   </si>
   <si>
     <t>主菜单</t>
   </si>
   <si>
-    <t>MenuForm</t>
+    <t>SaveForm</t>
   </si>
   <si>
     <t>存档界面</t>
@@ -131,49 +152,46 @@
     <t>Popup</t>
   </si>
   <si>
-    <t>SaveForm</t>
+    <t>RewardForm</t>
   </si>
   <si>
     <t>奖励界面</t>
   </si>
   <si>
-    <t>RewardForm</t>
+    <t>MainForm</t>
   </si>
   <si>
     <t>主节目</t>
   </si>
   <si>
-    <t>MainForm</t>
+    <t>BattleForm</t>
   </si>
   <si>
     <t>战斗界面</t>
   </si>
   <si>
-    <t>BattleForm</t>
+    <t>BattleEndForm</t>
   </si>
   <si>
     <t>战斗结束界面</t>
   </si>
   <si>
-    <t>BattleEndForm</t>
+    <t>ActionForm</t>
   </si>
   <si>
     <t>行动指令列表</t>
   </si>
   <si>
-    <t>ActionForm</t>
+    <t>StoryForm</t>
   </si>
   <si>
     <t>剧情界面</t>
   </si>
   <si>
-    <t>StoryForm</t>
+    <t>TipsForm</t>
   </si>
   <si>
     <t>游戏提示界面</t>
-  </si>
-  <si>
-    <t>TipsForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -221,11 +239,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +259,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,6 +274,121 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,127 +402,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -405,85 +430,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,91 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,16 +631,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,36 +662,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +683,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -695,152 +720,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +892,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1190,7 +1221,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection activeCell="F6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1238,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
@@ -1246,27 +1277,27 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="3">
-        <v>10000</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -1280,11 +1311,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" s="3">
-        <v>20000</v>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1314,12 +1345,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="11.3035714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.3392857142857" customWidth="1"/>
     <col min="3" max="4" width="11.4553571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1342,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1356,25 +1387,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>100</v>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1389,11 +1420,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
+    <col min="2" max="2" width="15.1785714285714" customWidth="1"/>
     <col min="3" max="3" width="13.3928571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1416,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1430,36 +1462,36 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>2001</v>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="3">
-        <v>2002</v>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1473,8 +1505,8 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1498,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1509,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -1526,110 +1558,110 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="6">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="6">
-        <v>100</v>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6">
-        <v>101</v>
+      <c r="B6" t="s">
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7">
-        <v>102</v>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8">
-        <v>103</v>
+      <c r="B8" t="s">
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="3">
-        <v>200</v>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1637,17 +1669,17 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="3">
-        <v>201</v>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1655,17 +1687,17 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="3">
-        <v>300</v>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1673,33 +1705,33 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12">
-        <v>1001</v>
+      <c r="B12" t="s">
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13">
-        <v>1002</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1715,8 +1747,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1740,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1748,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1765,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1783,13 +1815,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1798,13 +1830,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1812,13 +1844,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>##</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>选择特效</t>
+  </si>
+  <si>
+    <t>Attack</t>
   </si>
   <si>
     <t>GridEffectType</t>
@@ -238,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -273,7 +276,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +328,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -295,33 +396,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,82 +411,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -424,187 +427,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +634,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,200 +718,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1342,13 +1345,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="12.3392857142857" customWidth="1"/>
     <col min="3" max="4" width="11.4553571428571" customWidth="1"/>
@@ -1406,6 +1409,14 @@
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1474,24 +1485,24 @@
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1516,7 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1541,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -1558,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -1572,31 +1583,31 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1604,64 +1615,64 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1670,16 +1681,16 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1688,16 +1699,16 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1706,32 +1717,32 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1772,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1797,16 +1808,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1815,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1830,13 +1841,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1844,13 +1855,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>##</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>游戏提示界面</t>
+  </si>
+  <si>
+    <t>SkillActionForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -241,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -276,12 +279,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -297,16 +370,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,25 +386,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,58 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -404,9 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +430,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,19 +454,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,25 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,121 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,57 +637,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,150 +671,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1347,7 +1350,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1514,10 +1517,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1746,6 +1749,17 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1783,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1808,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1826,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1841,13 +1855,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1855,13 +1869,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>特效名</t>
   </si>
   <si>
-    <t>SelectEffect</t>
+    <t>Select</t>
   </si>
   <si>
     <t>选择特效</t>
@@ -244,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -273,13 +273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +302,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,40 +377,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,22 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,16 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,73 +430,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,109 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,17 +672,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,11 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,145 +726,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1350,8 +1350,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1519,7 +1519,7 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="实体资源表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>##</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>游戏提示界面</t>
+  </si>
+  <si>
+    <t>Tips</t>
   </si>
   <si>
     <t>SkillActionForm</t>
@@ -244,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -272,14 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,10 +297,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,11 +351,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,6 +384,14 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,14 +405,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,52 +417,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -430,31 +433,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,19 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,115 +595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,8 +630,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,7 +655,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,8 +693,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,21 +706,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,148 +729,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1350,7 +1353,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1519,8 +1522,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1742,7 +1745,7 @@
         <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>57</v>
@@ -1752,13 +1755,13 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1797,7 +1800,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1822,16 +1825,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1840,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1855,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1869,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>##</t>
   </si>
@@ -41,15 +41,12 @@
     <t>##type</t>
   </si>
   <si>
-    <t>EntityType</t>
+    <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>实体编号</t>
   </si>
   <si>
@@ -65,51 +62,39 @@
     <t>资源加载优先级</t>
   </si>
   <si>
+    <t>网格地图</t>
+  </si>
+  <si>
     <t>GridMap</t>
   </si>
   <si>
-    <t>网格地图</t>
+    <t>战斗单位</t>
   </si>
   <si>
     <t>BattleUnit</t>
   </si>
   <si>
-    <t>战斗单位</t>
-  </si>
-  <si>
-    <t>EffectType</t>
-  </si>
-  <si>
     <t>特效编号</t>
   </si>
   <si>
     <t>特效名</t>
   </si>
   <si>
+    <t>选择特效</t>
+  </si>
+  <si>
     <t>Select</t>
   </si>
   <si>
-    <t>选择特效</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
-    <t>GridEffectType</t>
-  </si>
-  <si>
-    <t>Streak</t>
-  </si>
-  <si>
     <t>条纹滚动特效</t>
   </si>
   <si>
     <t>streak</t>
   </si>
   <si>
-    <t>Brith</t>
-  </si>
-  <si>
     <t>出生点特效</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>UIGroup</t>
   </si>
   <si>
-    <t>FormType</t>
-  </si>
-  <si>
     <t>界面编号</t>
   </si>
   <si>
@@ -131,76 +113,76 @@
     <t>界面组</t>
   </si>
   <si>
+    <t>弹出框</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>DialogForm</t>
   </si>
   <si>
-    <t>弹出框</t>
-  </si>
-  <si>
-    <t>Default</t>
+    <t>主菜单</t>
   </si>
   <si>
     <t>MenuForm</t>
   </si>
   <si>
-    <t>主菜单</t>
+    <t>存档界面</t>
+  </si>
+  <si>
+    <t>Popup</t>
   </si>
   <si>
     <t>SaveForm</t>
   </si>
   <si>
-    <t>存档界面</t>
-  </si>
-  <si>
-    <t>Popup</t>
+    <t>奖励界面</t>
   </si>
   <si>
     <t>RewardForm</t>
   </si>
   <si>
-    <t>奖励界面</t>
+    <t>主节目</t>
   </si>
   <si>
     <t>MainForm</t>
   </si>
   <si>
-    <t>主节目</t>
+    <t>战斗界面</t>
   </si>
   <si>
     <t>BattleForm</t>
   </si>
   <si>
-    <t>战斗界面</t>
+    <t>战斗结束界面</t>
   </si>
   <si>
     <t>BattleEndForm</t>
   </si>
   <si>
-    <t>战斗结束界面</t>
+    <t>行动指令列表</t>
   </si>
   <si>
     <t>ActionForm</t>
   </si>
   <si>
-    <t>行动指令列表</t>
+    <t>剧情界面</t>
+  </si>
+  <si>
+    <t>SkillActionForm</t>
+  </si>
+  <si>
+    <t>游戏提示界面</t>
+  </si>
+  <si>
+    <t>Tips</t>
   </si>
   <si>
     <t>StoryForm</t>
   </si>
   <si>
-    <t>剧情界面</t>
-  </si>
-  <si>
     <t>TipsForm</t>
-  </si>
-  <si>
-    <t>游戏提示界面</t>
-  </si>
-  <si>
-    <t>Tips</t>
-  </si>
-  <si>
-    <t>SkillActionForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -247,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -275,7 +257,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,9 +324,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,60 +364,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,37 +373,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,7 +387,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,187 +415,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,23 +612,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +623,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,17 +698,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,152 +711,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,7 +875,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -902,10 +890,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,7 +1218,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1278,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
@@ -1286,27 +1274,27 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -1314,17 +1302,17 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+      <c r="B5" s="12">
+        <v>20000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1332,15 +1320,15 @@
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="6:6">
-      <c r="F8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1354,7 +1342,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1382,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1396,33 +1384,33 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1425,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1465,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1479,36 +1467,36 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1511,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1547,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1558,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -1575,193 +1563,193 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="8">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" t="s">
-        <v>45</v>
+      <c r="B7" s="8">
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" t="s">
-        <v>47</v>
+      <c r="B8" s="8">
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8">
+        <v>200</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="8">
+        <v>201</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="8">
+        <v>300</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="8">
+        <v>301</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" t="s">
-        <v>57</v>
+      <c r="B13" s="8">
+        <v>1001</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>60</v>
+      <c r="B14" s="8">
+        <v>1002</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1764,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1800,7 +1788,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1808,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1825,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1843,13 +1831,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1858,13 +1846,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1872,13 +1860,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>##</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>TipsForm</t>
+  </si>
+  <si>
+    <t>回合切换动画</t>
+  </si>
+  <si>
+    <t>RoundSwitchForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -230,9 +236,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -265,6 +271,67 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,8 +353,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +378,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,98 +405,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -415,91 +421,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,91 +589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,22 +628,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +663,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -687,22 +698,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,152 +717,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,9 +897,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,7 +1293,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>10000</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1308,7 +1311,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>20000</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1395,7 +1398,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1508,7 +1511,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -1750,6 +1753,20 @@
       </c>
       <c r="E14" s="8" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15">
+        <v>1003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1813,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1831,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1846,13 +1863,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1860,13 +1877,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -113,27 +113,27 @@
     <t>界面组</t>
   </si>
   <si>
-    <t>弹出框</t>
+    <t>菜单界面</t>
   </si>
   <si>
     <t>Default</t>
   </si>
   <si>
-    <t>DialogForm</t>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
     <t>MenuForm</t>
   </si>
   <si>
+    <t>游戏设置界面</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>GameSetForm</t>
+  </si>
+  <si>
     <t>存档界面</t>
   </si>
   <si>
-    <t>Popup</t>
-  </si>
-  <si>
     <t>SaveForm</t>
   </si>
   <si>
@@ -143,7 +143,7 @@
     <t>RewardForm</t>
   </si>
   <si>
-    <t>主节目</t>
+    <t>游戏主界面</t>
   </si>
   <si>
     <t>MainForm</t>
@@ -235,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -263,6 +263,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -271,6 +287,74 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,21 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -316,68 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,17 +400,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -421,13 +421,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,25 +523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,67 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,55 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,8 +618,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,8 +653,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,50 +706,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,152 +717,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,16 +884,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1293,7 +1302,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>10000</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1305,13 +1314,13 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>20000</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1323,15 +1332,15 @@
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="6:6">
-      <c r="F8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1398,7 +1407,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1409,7 +1418,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
       <c r="D5" t="s">
@@ -1481,7 +1490,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1492,7 +1501,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1514,7 +1523,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1585,65 +1594,67 @@
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="6">
-        <v>100</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="8">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>103</v>
       </c>
       <c r="C8" t="s">
@@ -1652,14 +1663,14 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>200</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1668,16 +1679,16 @@
       <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>201</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1686,50 +1697,50 @@
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>300</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>1001</v>
       </c>
       <c r="C13" t="s">
@@ -1738,20 +1749,20 @@
       <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>1002</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
     </row>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>##</t>
   </si>
@@ -86,6 +86,9 @@
     <t>Select</t>
   </si>
   <si>
+    <t>攻击特效</t>
+  </si>
+  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>StoryForm</t>
   </si>
   <si>
+    <t>战斗信息界面</t>
+  </si>
+  <si>
     <t>TipsForm</t>
   </si>
   <si>
@@ -189,6 +195,12 @@
   </si>
   <si>
     <t>RoundSwitchForm</t>
+  </si>
+  <si>
+    <t>单位信息界面</t>
+  </si>
+  <si>
+    <t>GridUnitInfoForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -263,7 +275,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +303,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -285,23 +394,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,97 +417,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -427,175 +439,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,8 +630,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,34 +653,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -689,17 +690,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,152 +729,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,12 +900,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -904,9 +910,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1354,7 +1357,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1418,11 +1421,14 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="14">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1490,25 +1496,25 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
-      <c r="B4" s="14">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="14">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1520,10 +1526,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1547,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1575,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -1592,47 +1598,47 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1642,13 +1648,13 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1658,13 +1664,13 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1674,67 +1680,67 @@
         <v>200</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="9">
         <v>201</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="12"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="9">
         <v>300</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="9">
         <v>301</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1744,13 +1750,13 @@
         <v>1001</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1759,11 +1765,14 @@
       <c r="B14" s="9">
         <v>1002</v>
       </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -1771,13 +1780,27 @@
         <v>1003</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16">
+        <v>1004</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1815,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1816,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1841,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1859,13 +1882,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1874,13 +1897,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1888,13 +1911,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/资源表.xlsx
+++ b/导表工具/Excels/资源表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>##</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>GridUnitInfoForm</t>
+  </si>
+  <si>
+    <t>TextBubbleForm</t>
   </si>
   <si>
     <t>ProcedureType</t>
@@ -247,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -275,23 +278,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,30 +392,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,75 +415,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -439,175 +442,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,8 +633,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,53 +711,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,162 +727,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1526,10 +1529,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1801,6 +1804,17 @@
       </c>
       <c r="E16" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>1005</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1864,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1882,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1897,13 +1911,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1911,13 +1925,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
